--- a/Results/Evaluations/Relevance/RQ3.xlsx
+++ b/Results/Evaluations/Relevance/RQ3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\12-ASE\Submission\Results\Evaluations\Relevance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\12-ASE\Submission_Major\Results\Evaluations\Relevance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49FE232-5464-43C1-9E32-6230EEB9AE5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB6AE18-6A8D-450F-8B7D-BE461F4F1334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ3" sheetId="1" r:id="rId1"/>
@@ -19811,163 +19811,6 @@
   <si>
     <r>
       <t xml:space="preserve">User Story: 
-As a user, I want to search and discover music or ringback tones similar to a given music video based on content similarity.	
-Acceptance Criteria:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. The user should be able to iput music videos in the search.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. The search results for the given music videos should be music or ringback tones.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. The search results should be listed with similarity percentages.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5. The search results could be sorted by different orders: similarity, release date, popularity, rating.
-6. The search results could be filtered by different conditions: similarity, release date.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7. Proper search handling mechnism, such as partial match.
-8. For failuare search results, propser message should be prompt.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. The system should provide a preview option for users to listen to a snippet of the results.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10. When there is large amount of similar results being returned, the display of the results should be no significant delay or latency.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-11. The results should be displayed by pages, for each page consist of X results. The number of total results and pages should be correctly displayed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User Story: 
 As a depositor, I want to have metadata automatically filled from other University systems and remembered from previous deposits, so that I don't have to waste time reentering the same information.
 Acceptance Criteria:
 1. The system should provide the option of "Retrieve data" when the depositor filling the forms.
@@ -20723,6 +20566,163 @@
   </si>
   <si>
     <t>K=4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Story: 
+As a user, I want to search and discover music or ringback tones similar to a given music video based on content similarity.	
+Acceptance Criteria:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. The user should be able to iput music videos in the search.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. The search results for the given music videos should be music or ringback tones.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. The search results should be listed with similarity percentages.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. The search results could be sorted by different orders: similarity, release date, popularity, rating.
+6. The search results could be filtered by different conditions: similarity, release date.
+7. Proper search handling mechnism, such as partial match.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8. For failuare search results, propser message should be prompt.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. The system should provide a preview option for users to listen to a snippet of the results.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10. When there is large amount of similar results being returned, the display of the results should be no significant delay or latency.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11. The results should be displayed by pages, for each page consist of X results. The number of total results and pages should be correctly displayed.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -20853,15 +20853,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -20872,6 +20863,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21154,19 +21154,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView topLeftCell="B110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="82.26953125" customWidth="1"/>
-    <col min="10" max="10" width="130.7265625" customWidth="1"/>
+    <col min="9" max="9" width="82.28515625" customWidth="1"/>
+    <col min="10" max="10" width="130.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -21196,14 +21196,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="15">
         <v>30</v>
       </c>
       <c r="D2" s="1">
@@ -21228,10 +21228,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+    <row r="3" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -21254,10 +21254,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -21280,10 +21280,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1">
         <v>4</v>
       </c>
@@ -21300,18 +21300,18 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7">
+    <row r="6" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <v>63</v>
       </c>
       <c r="D6" s="3">
@@ -21336,10 +21336,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="3">
         <v>2</v>
       </c>
@@ -21362,10 +21362,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+    <row r="8" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="3">
         <v>3</v>
       </c>
@@ -21388,10 +21388,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="3">
         <v>4</v>
       </c>
@@ -21414,12 +21414,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8">
+    <row r="10" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="15">
         <v>53</v>
       </c>
       <c r="D10" s="1">
@@ -21444,10 +21444,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+    <row r="11" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1">
         <v>2</v>
       </c>
@@ -21470,10 +21470,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+    <row r="12" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="1">
         <v>3</v>
       </c>
@@ -21490,16 +21490,16 @@
         <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+    <row r="13" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1">
         <v>4</v>
       </c>
@@ -21522,12 +21522,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7">
+    <row r="14" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13">
         <v>4</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="13">
         <v>37</v>
       </c>
       <c r="D14" s="3">
@@ -21552,10 +21552,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="3">
         <v>2</v>
       </c>
@@ -21578,10 +21578,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+    <row r="16" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="3">
         <v>3</v>
       </c>
@@ -21604,10 +21604,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+    <row r="17" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="3">
         <v>4</v>
       </c>
@@ -21630,12 +21630,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8">
+    <row r="18" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
         <v>5</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="15">
         <v>26</v>
       </c>
       <c r="D18" s="1">
@@ -21660,10 +21660,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+    <row r="19" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1">
         <v>2</v>
       </c>
@@ -21686,10 +21686,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+    <row r="20" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1">
         <v>3</v>
       </c>
@@ -21712,10 +21712,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+    <row r="21" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1">
         <v>4</v>
       </c>
@@ -21738,12 +21738,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7">
+    <row r="22" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="13">
         <v>6</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="13">
         <v>57</v>
       </c>
       <c r="D22" s="3">
@@ -21768,10 +21768,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+    <row r="23" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="3">
         <v>2</v>
       </c>
@@ -21794,10 +21794,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3">
         <v>3</v>
       </c>
@@ -21820,10 +21820,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+    <row r="25" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="3">
         <v>4</v>
       </c>
@@ -21846,12 +21846,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8">
+    <row r="26" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
         <v>7</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="15">
         <v>65</v>
       </c>
       <c r="D26" s="1">
@@ -21876,10 +21876,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+    <row r="27" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1">
         <v>2</v>
       </c>
@@ -21902,10 +21902,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+    <row r="28" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1">
         <v>3</v>
       </c>
@@ -21928,10 +21928,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+    <row r="29" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="1">
         <v>4</v>
       </c>
@@ -21954,12 +21954,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7">
+    <row r="30" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13">
         <v>8</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="13">
         <v>2</v>
       </c>
       <c r="D30" s="3">
@@ -21984,10 +21984,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+    <row r="31" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="3">
         <v>2</v>
       </c>
@@ -22010,10 +22010,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+    <row r="32" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="3">
         <v>3</v>
       </c>
@@ -22036,10 +22036,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+    <row r="33" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3">
         <v>4</v>
       </c>
@@ -22062,12 +22062,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8">
+    <row r="34" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15">
         <v>9</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="15">
         <v>40</v>
       </c>
       <c r="D34" s="1">
@@ -22092,10 +22092,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+    <row r="35" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="1">
         <v>2</v>
       </c>
@@ -22118,10 +22118,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="1">
         <v>3</v>
       </c>
@@ -22141,13 +22141,13 @@
         <v>44</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="1">
         <v>4</v>
       </c>
@@ -22170,12 +22170,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7">
+    <row r="38" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="13">
         <v>10</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="13">
         <v>58</v>
       </c>
       <c r="D38" s="3">
@@ -22200,10 +22200,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+    <row r="39" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="3">
         <v>2</v>
       </c>
@@ -22226,10 +22226,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+    <row r="40" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="3">
         <v>3</v>
       </c>
@@ -22252,10 +22252,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+    <row r="41" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="3">
         <v>4</v>
       </c>
@@ -22278,14 +22278,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B42" s="8">
+    <row r="42" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="15">
         <v>1</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="15">
         <v>50</v>
       </c>
       <c r="D42" s="1">
@@ -22310,10 +22310,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="1">
         <v>2</v>
       </c>
@@ -22336,10 +22336,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+    <row r="44" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="1">
         <v>3</v>
       </c>
@@ -22362,10 +22362,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+    <row r="45" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="1">
         <v>4</v>
       </c>
@@ -22388,12 +22388,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="348" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7">
+    <row r="46" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="13">
         <v>2</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="13">
         <v>27</v>
       </c>
       <c r="D46" s="3">
@@ -22418,10 +22418,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+    <row r="47" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="3">
         <v>2</v>
       </c>
@@ -22444,10 +22444,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+    <row r="48" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="3">
         <v>3</v>
       </c>
@@ -22470,10 +22470,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+    <row r="49" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="3">
         <v>4</v>
       </c>
@@ -22496,12 +22496,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="8">
+    <row r="50" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
         <v>3</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="15">
         <v>7</v>
       </c>
       <c r="D50" s="1">
@@ -22526,10 +22526,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+    <row r="51" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="1">
         <v>2</v>
       </c>
@@ -22552,10 +22552,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+    <row r="52" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="1">
         <v>3</v>
       </c>
@@ -22578,10 +22578,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+    <row r="53" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="1">
         <v>4</v>
       </c>
@@ -22604,12 +22604,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7">
+    <row r="54" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="13">
         <v>4</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="13">
         <v>25</v>
       </c>
       <c r="D54" s="3">
@@ -22634,10 +22634,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+    <row r="55" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="3">
         <v>2</v>
       </c>
@@ -22660,10 +22660,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+    <row r="56" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="3">
         <v>3</v>
       </c>
@@ -22686,10 +22686,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+    <row r="57" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="3">
         <v>4</v>
       </c>
@@ -22712,12 +22712,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="8">
+    <row r="58" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15">
         <v>5</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="15">
         <v>11</v>
       </c>
       <c r="D58" s="1">
@@ -22736,16 +22736,16 @@
         <v>4</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+    <row r="59" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="1">
         <v>2</v>
       </c>
@@ -22762,16 +22762,16 @@
         <v>5</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+    <row r="60" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="1">
         <v>3</v>
       </c>
@@ -22788,16 +22788,16 @@
         <v>5</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+    <row r="61" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="1">
         <v>4</v>
       </c>
@@ -22814,18 +22814,18 @@
         <v>3</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="B62" s="7">
+    <row r="62" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="13">
         <v>6</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="13">
         <v>26</v>
       </c>
       <c r="D62" s="3">
@@ -22850,10 +22850,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+    <row r="63" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="3">
         <v>2</v>
       </c>
@@ -22876,10 +22876,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+    <row r="64" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="3">
         <v>3</v>
       </c>
@@ -22902,10 +22902,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+    <row r="65" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="3">
         <v>4</v>
       </c>
@@ -22928,12 +22928,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="B66" s="8">
+    <row r="66" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15">
         <v>7</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="15">
         <v>16</v>
       </c>
       <c r="D66" s="1">
@@ -22958,10 +22958,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+    <row r="67" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="1">
         <v>2</v>
       </c>
@@ -22984,10 +22984,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+    <row r="68" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="1">
         <v>3</v>
       </c>
@@ -23010,10 +23010,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+    <row r="69" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="1">
         <v>4</v>
       </c>
@@ -23036,12 +23036,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="B70" s="7">
+    <row r="70" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="13">
         <v>8</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="13">
         <v>21</v>
       </c>
       <c r="D70" s="3">
@@ -23066,10 +23066,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+    <row r="71" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="3">
         <v>2</v>
       </c>
@@ -23092,10 +23092,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+    <row r="72" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="3">
         <v>3</v>
       </c>
@@ -23118,10 +23118,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+    <row r="73" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="3">
         <v>4</v>
       </c>
@@ -23144,12 +23144,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="B74" s="8">
+    <row r="74" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15">
         <v>9</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="15">
         <v>8</v>
       </c>
       <c r="D74" s="1">
@@ -23174,10 +23174,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+    <row r="75" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="1">
         <v>2</v>
       </c>
@@ -23200,10 +23200,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+    <row r="76" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="1">
         <v>3</v>
       </c>
@@ -23226,10 +23226,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+    <row r="77" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="1">
         <v>4</v>
       </c>
@@ -23252,12 +23252,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
-      <c r="B78" s="7">
+    <row r="78" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="13">
         <v>10</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="13">
         <v>1</v>
       </c>
       <c r="D78" s="3">
@@ -23282,10 +23282,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+    <row r="79" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="3">
         <v>2</v>
       </c>
@@ -23308,10 +23308,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+    <row r="80" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="3">
         <v>3</v>
       </c>
@@ -23334,10 +23334,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+    <row r="81" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="3">
         <v>4</v>
       </c>
@@ -23360,14 +23360,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A82" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B82" s="8">
+    <row r="82" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="15">
         <v>1</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="15">
         <v>6</v>
       </c>
       <c r="D82" s="1">
@@ -23392,10 +23392,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+    <row r="83" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
       <c r="D83" s="1">
         <v>2</v>
       </c>
@@ -23418,10 +23418,10 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+    <row r="84" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="1">
         <v>3</v>
       </c>
@@ -23444,10 +23444,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+    <row r="85" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="1">
         <v>4</v>
       </c>
@@ -23470,12 +23470,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="7">
+    <row r="86" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="13">
         <v>2</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="13">
         <v>49</v>
       </c>
       <c r="D86" s="3">
@@ -23500,10 +23500,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+    <row r="87" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="3">
         <v>2</v>
       </c>
@@ -23526,10 +23526,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+    <row r="88" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="3">
         <v>3</v>
       </c>
@@ -23552,10 +23552,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+    <row r="89" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="3">
         <v>4</v>
       </c>
@@ -23578,12 +23578,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="9"/>
-      <c r="B90" s="8">
+    <row r="90" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15">
         <v>3</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="15">
         <v>5</v>
       </c>
       <c r="D90" s="1">
@@ -23608,10 +23608,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="9"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+    <row r="91" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="1">
         <v>2</v>
       </c>
@@ -23634,10 +23634,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+    <row r="92" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="1">
         <v>3</v>
       </c>
@@ -23660,10 +23660,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="9"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+    <row r="93" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="1">
         <v>4</v>
       </c>
@@ -23686,12 +23686,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A94" s="9"/>
-      <c r="B94" s="7">
+    <row r="94" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="13">
         <v>4</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="13">
         <v>20</v>
       </c>
       <c r="D94" s="3">
@@ -23716,10 +23716,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
+    <row r="95" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="3">
         <v>2</v>
       </c>
@@ -23742,10 +23742,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
+    <row r="96" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="3">
         <v>3</v>
       </c>
@@ -23768,10 +23768,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
+    <row r="97" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="3">
         <v>4</v>
       </c>
@@ -23794,12 +23794,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
-      <c r="B98" s="8">
+    <row r="98" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15">
         <v>5</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="15">
         <v>25</v>
       </c>
       <c r="D98" s="1">
@@ -23824,10 +23824,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
+    <row r="99" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="1">
         <v>2</v>
       </c>
@@ -23850,10 +23850,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
+    <row r="100" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="1">
         <v>3</v>
       </c>
@@ -23876,10 +23876,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
+    <row r="101" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="1">
         <v>4</v>
       </c>
@@ -23902,12 +23902,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A102" s="9"/>
-      <c r="B102" s="7">
+    <row r="102" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="13">
         <v>6</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="13">
         <v>50</v>
       </c>
       <c r="D102" s="3">
@@ -23932,10 +23932,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A103" s="9"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
+    <row r="103" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="3">
         <v>2</v>
       </c>
@@ -23958,10 +23958,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A104" s="9"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
+    <row r="104" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="3">
         <v>3</v>
       </c>
@@ -23984,10 +23984,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A105" s="9"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
+    <row r="105" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
       <c r="D105" s="3">
         <v>4</v>
       </c>
@@ -24010,12 +24010,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="9"/>
-      <c r="B106" s="8">
+    <row r="106" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="15">
         <v>7</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="15">
         <v>17</v>
       </c>
       <c r="D106" s="1">
@@ -24040,10 +24040,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="9"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
+    <row r="107" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="1">
         <v>2</v>
       </c>
@@ -24066,10 +24066,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+    <row r="108" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="1">
         <v>3</v>
       </c>
@@ -24092,10 +24092,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="9"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
+    <row r="109" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="1">
         <v>4</v>
       </c>
@@ -24118,12 +24118,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A110" s="9"/>
-      <c r="B110" s="7">
+    <row r="110" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="13">
         <v>8</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="13">
         <v>3</v>
       </c>
       <c r="D110" s="3">
@@ -24148,10 +24148,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A111" s="9"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
+    <row r="111" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
       <c r="D111" s="3">
         <v>2</v>
       </c>
@@ -24174,10 +24174,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A112" s="9"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
+    <row r="112" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
       <c r="D112" s="3">
         <v>3</v>
       </c>
@@ -24188,22 +24188,22 @@
         <v>13</v>
       </c>
       <c r="G112" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H112" s="3">
         <v>7</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A113" s="9"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
+    <row r="113" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
       <c r="D113" s="3">
         <v>4</v>
       </c>
@@ -24226,12 +24226,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="9"/>
-      <c r="B114" s="8">
+    <row r="114" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15">
         <v>9</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="15">
         <v>15</v>
       </c>
       <c r="D114" s="1">
@@ -24256,10 +24256,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A115" s="9"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
+    <row r="115" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="1">
         <v>2</v>
       </c>
@@ -24282,10 +24282,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A116" s="9"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
+    <row r="116" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="1">
         <v>3</v>
       </c>
@@ -24308,10 +24308,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A117" s="9"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
+    <row r="117" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="1">
         <v>4</v>
       </c>
@@ -24334,12 +24334,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="9"/>
-      <c r="B118" s="7">
+    <row r="118" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="13">
         <v>10</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="13">
         <v>21</v>
       </c>
       <c r="D118" s="3">
@@ -24364,10 +24364,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="9"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
+    <row r="119" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="3">
         <v>2</v>
       </c>
@@ -24390,10 +24390,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="9"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
+    <row r="120" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
       <c r="D120" s="3">
         <v>3</v>
       </c>
@@ -24416,10 +24416,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="9"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
+    <row r="121" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
       <c r="D121" s="3">
         <v>4</v>
       </c>
@@ -24445,6 +24445,53 @@
   </sheetData>
   <autoFilter ref="D1:D41" xr:uid="{543C1862-621A-462E-8E11-72F31FB74299}"/>
   <mergeCells count="63">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="A42:A81"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
     <mergeCell ref="B118:B121"/>
     <mergeCell ref="C118:C121"/>
     <mergeCell ref="A82:A121"/>
@@ -24461,53 +24508,6 @@
     <mergeCell ref="B102:B105"/>
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="A42:A81"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24519,84 +24519,84 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="D2" s="9" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>251</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.402146372146372</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.32254940850916086</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="13">
-        <v>0.402146372146372</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.32254940850916086</v>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.42791911791911796</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.42161847411847403</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="13">
-        <v>0.42791911791911796</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.42161847411847403</v>
+      <c r="B5" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.60595182595182595</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.51285196285196277</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.60292152292152301</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.51285196285196277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>258</v>
       </c>
-      <c r="B6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>0.46837292337292341</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>0.42771284271284277</v>
       </c>
     </row>
